--- a/medicine/Nettoyage et hygiène/Tampax/Tampax.xlsx
+++ b/medicine/Nettoyage et hygiène/Tampax/Tampax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tampax est une marque de tampons hygiéniques aujourd'hui propriété de la firme Procter &amp; Gamble.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1932, un médecin américain, le Dr Earl Haas, eut l'idée de reprendre le principe du tampon chirurgical pour remplacer les serviettes hygiéniques, source d'infections. Pour éviter que ce tampon ne soit contaminé, par des mains (sales) lors de son introduction, il inventa un tube applicateur aseptisé et un cordon cousu au tampon. Il baptisa son invention Tampax en contractant les mots « tampon » et « pack ». Le mot tampax fait partie des marques utilisées comme noms. Il fit breveter son invention le 19 novembre 1931, mais échoua dans sa tentative de rendre publique son invention.
 Le 16 octobre 1933, un groupe mené par une femme d'affaires de Denver, Gertrude Tenderich, racheta le nom de la marque et le brevet pour 32 000 $. Gertrude Tenderich revendra la société Tampax en 1936 faute d'avoir réussi à la développer. 
